--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2381727.016548241</v>
+        <v>2500667.350036321</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.946211476</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5701274.042876974</v>
+        <v>6019170.008038125</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>100.5466725181079</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>135.0628014675679</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.86556903939466</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0.5932854323695506</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
@@ -908,7 +910,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>15.24289001803345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>46.93907536729473</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.907313470297</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1102,7 +1104,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1114,13 +1116,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.3270663945851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>253.4105282165708</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>365.3326246353246</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>142.3668648089843</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>117.6382986347632</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>336.4620842263514</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1379,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.8561043814263</v>
+        <v>99.86585609575492</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1546,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>4.147131306732804</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>48.92336156852569</v>
       </c>
       <c r="E16" t="n">
-        <v>148.0086458060446</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396256</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>246.9271603755208</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.9332546069155</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>42.76777254344215</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2536,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>106.3397188323751</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>107.6028387147875</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>237.2795373799636</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>23.33741930671558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,16 +3009,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886567</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3196,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>153.2284282554374</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3241,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>242.3467232451908</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>12.27734699218708</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3560,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069309</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>19.53872709080104</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.7998986723415</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3797,16 +3799,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>116.7820636073101</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.283897344659</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>98.15366458399255</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>121.0585868332341</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3958,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3982,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>124.0164628179533</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686383</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>274.8421922750358</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>608.6939898724443</v>
+        <v>1775.192137383435</v>
       </c>
       <c r="C2" t="n">
-        <v>181.7932598857444</v>
+        <v>1348.291407396735</v>
       </c>
       <c r="D2" t="n">
-        <v>80.23096441290814</v>
+        <v>1329.03919062214</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>903.0622507699974</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="L2" t="n">
-        <v>358.3859952497895</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="M2" t="n">
-        <v>358.3859952497895</v>
+        <v>880.2445183516413</v>
       </c>
       <c r="N2" t="n">
-        <v>358.3859952497895</v>
+        <v>1359.18344259407</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1359.18344259407</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="X2" t="n">
-        <v>1433.879624209084</v>
+        <v>1927.427169824024</v>
       </c>
       <c r="Y2" t="n">
-        <v>1028.542354163974</v>
+        <v>1791.000097634561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668178</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843225</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996076</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725448</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554489</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730529</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353625</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972744</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>405.5632662768654</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>405.5632662768654</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>405.5632662768654</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>884.5021905192939</v>
       </c>
       <c r="N3" t="n">
-        <v>1229.627938107791</v>
+        <v>884.5021905192939</v>
       </c>
       <c r="O3" t="n">
-        <v>1686.413844810522</v>
+        <v>910.0030534259615</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.94197766839</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.087454531169</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177127</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474805</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394442</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533708</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366925</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335881</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868805</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.9123460168331</v>
+        <v>448.523941749655</v>
       </c>
       <c r="C4" t="n">
-        <v>781.9123460168331</v>
+        <v>448.523941749655</v>
       </c>
       <c r="D4" t="n">
-        <v>618.5955731436038</v>
+        <v>448.523941749655</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303046</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.933103822181</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1474.593756048081</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.902165973849</v>
+        <v>1473.994477833566</v>
       </c>
       <c r="V4" t="n">
-        <v>823.1906985818782</v>
+        <v>1192.283010441595</v>
       </c>
       <c r="W4" t="n">
-        <v>823.1906985818782</v>
+        <v>917.4306066141079</v>
       </c>
       <c r="X4" t="n">
-        <v>823.1906985818782</v>
+        <v>674.866710059913</v>
       </c>
       <c r="Y4" t="n">
-        <v>823.1906985818782</v>
+        <v>448.523941749655</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>561.2807824307324</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>538.4204564844366</v>
+        <v>561.1048893067843</v>
       </c>
       <c r="D5" t="n">
-        <v>519.1682397098409</v>
+        <v>137.8122684917846</v>
       </c>
       <c r="E5" t="n">
-        <v>497.2317038981026</v>
+        <v>115.8757326800462</v>
       </c>
       <c r="F5" t="n">
-        <v>476.1479261279069</v>
+        <v>94.79195490985052</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1798.186415599625</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.466416767372</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.1291467222625</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273858</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254695</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>501.1445421254695</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>932.0278096358747</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1388.813716338606</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>784.9145678863947</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="C7" t="n">
-        <v>612.9420047653107</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="D7" t="n">
-        <v>612.9420047653107</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.037213454714</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>993.3257460627433</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>993.3257460627433</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>993.3257460627433</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.9145678863947</v>
+        <v>927.6499241754307</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1716.447907866797</v>
+        <v>1171.120452378522</v>
       </c>
       <c r="C8" t="n">
-        <v>1693.587581920501</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D8" t="n">
-        <v>1270.294961105501</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>901.2721079385067</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>476.1479261279069</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.257381456703</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.232328914477</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.552734122628</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.255868117923</v>
+        <v>1186.928412629647</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023297</v>
+        <v>577.4153955460176</v>
       </c>
       <c r="L9" t="n">
-        <v>316.0561247023297</v>
+        <v>577.4153955460176</v>
       </c>
       <c r="M9" t="n">
-        <v>316.0561247023297</v>
+        <v>577.4153955460176</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484407</v>
+        <v>577.4153955460176</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511716</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321.9955264441332</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C10" t="n">
-        <v>321.9955264441332</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D10" t="n">
-        <v>203.1689621665946</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E10" t="n">
-        <v>203.1689621665946</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>548.3382947543912</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y10" t="n">
-        <v>321.9955264441332</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1559.482880093836</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1219.622188956107</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>796.3295681411071</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>370.3526282889647</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>370.3526282889647</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299953</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L11" t="n">
-        <v>787.9925577384986</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M11" t="n">
-        <v>1684.985148555618</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N11" t="n">
-        <v>2322.982358494981</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O11" t="n">
-        <v>3168.127008645793</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.127008645793</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.442592917271</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.051243217618</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1979.331244385366</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1979.331244385366</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>79.93089272491136</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>79.93089272491136</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L12" t="n">
-        <v>916.7297008078175</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M12" t="n">
-        <v>916.7297008078175</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N12" t="n">
-        <v>916.7297008078175</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1417.02640348073</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1417.02640348073</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>889.6885981803659</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C13" t="n">
-        <v>717.7160350592819</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D13" t="n">
-        <v>554.3992621860526</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E13" t="n">
-        <v>554.3992621860526</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>382.537487960613</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2805182548451</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299953</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.674562202009</v>
+        <v>1346.493000510101</v>
       </c>
       <c r="Y13" t="n">
-        <v>1002.674562202009</v>
+        <v>1120.150232199843</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2053.27445469921</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299953</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>88.09006554780694</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>88.09006554780694</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>985.082656364926</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>1882.075247182045</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>2779.067837999164</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149976</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149976</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3266.723073276225</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2870.331723576573</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2458.61172474432</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2053.27445469921</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>79.93089272491136</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>1778.912116655748</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1778.912116655748</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1778.912116655748</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O15" t="n">
-        <v>1778.912116655748</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>703.9029448184209</v>
+        <v>1071.584599994741</v>
       </c>
       <c r="C16" t="n">
-        <v>703.9029448184209</v>
+        <v>899.612036873657</v>
       </c>
       <c r="D16" t="n">
-        <v>703.9029448184209</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>554.3992621860526</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548451</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299953</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.557929402028</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.373480902332</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.662013510361</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.809609682874</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X16" t="n">
-        <v>930.2457131286789</v>
+        <v>1297.927368304999</v>
       </c>
       <c r="Y16" t="n">
-        <v>703.9029448184209</v>
+        <v>1071.584599994741</v>
       </c>
     </row>
     <row r="17">
@@ -5495,70 +5497,70 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623564</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572743</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991801</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478502</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629314</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787242</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5592,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>712.1138248592226</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1181.020489723675</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>938.4565931694806</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>712.1138248592226</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,37 +5761,37 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409523</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710917</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710917</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818556</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291425</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291425</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.4214573370359</v>
+        <v>3702.24572268525</v>
       </c>
       <c r="C22" t="n">
-        <v>440.4214573370359</v>
+        <v>3530.273159564166</v>
       </c>
       <c r="D22" t="n">
-        <v>440.4214573370359</v>
+        <v>3366.956386690937</v>
       </c>
       <c r="E22" t="n">
-        <v>440.4214573370359</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>5024.897286732699</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>4781.557938958599</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>4501.373490458904</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>4219.662023066932</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>3944.809619239445</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>3702.24572268525</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>3702.24572268525</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1808.730580298577</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3205.84032174079</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="C25" t="n">
-        <v>3033.867758619706</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D25" t="n">
-        <v>3033.867758619706</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E25" t="n">
-        <v>3033.867758619706</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>3864.912955317308</v>
+        <v>1152.892958953058</v>
       </c>
       <c r="X25" t="n">
-        <v>3622.349058763114</v>
+        <v>910.3290623988637</v>
       </c>
       <c r="Y25" t="n">
-        <v>3396.006290452855</v>
+        <v>683.9862940886057</v>
       </c>
     </row>
     <row r="26">
@@ -6309,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>609.4538236255814</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>437.4812605044974</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2174.026004743414</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1930.686656969314</v>
       </c>
       <c r="U28" t="n">
-        <v>1582.526431867363</v>
+        <v>1650.502208469618</v>
       </c>
       <c r="V28" t="n">
-        <v>1300.814964475392</v>
+        <v>1650.502208469618</v>
       </c>
       <c r="W28" t="n">
-        <v>1025.962560647905</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="X28" t="n">
-        <v>1025.962560647905</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y28" t="n">
-        <v>799.6197923376471</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6473,10 +6475,10 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6549,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3278.556980224822</v>
+        <v>3941.708347957676</v>
       </c>
       <c r="C31" t="n">
-        <v>3106.584417103738</v>
+        <v>3769.735784836592</v>
       </c>
       <c r="D31" t="n">
-        <v>3106.584417103738</v>
+        <v>3606.419011963363</v>
       </c>
       <c r="E31" t="n">
-        <v>3106.584417103738</v>
+        <v>3440.210806116216</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>3268.349031890777</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>3102.092062185009</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>2958.295793693163</v>
       </c>
       <c r="I31" t="n">
         <v>2934.722642878299</v>
@@ -6643,28 +6645,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>5017.717281294595</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T31" t="n">
-        <v>4774.377933520494</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U31" t="n">
-        <v>4494.193485020799</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V31" t="n">
-        <v>4212.482017628828</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W31" t="n">
-        <v>3937.629613801341</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="X31" t="n">
-        <v>3695.065717247146</v>
+        <v>4131.874316669741</v>
       </c>
       <c r="Y31" t="n">
-        <v>3468.722948936888</v>
+        <v>4131.874316669741</v>
       </c>
     </row>
     <row r="32">
@@ -6783,10 +6785,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.8257932127802</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="C34" t="n">
-        <v>697.8532300916962</v>
+        <v>3685.049349721174</v>
       </c>
       <c r="D34" t="n">
-        <v>534.5364572184669</v>
+        <v>3521.732576847945</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>3355.524371000798</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.408062306528</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1577.408062306528</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W34" t="n">
-        <v>1302.555658479041</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X34" t="n">
-        <v>1059.991761924846</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y34" t="n">
-        <v>1059.991761924846</v>
+        <v>3857.021912842258</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6931,28 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3813.905540636432</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
         <v>4659.050190787244</v>
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>596.570322568429</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>430.3621167212825</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>258.5003424958429</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="38">
@@ -7178,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3350.260042750952</v>
+        <v>1085.715267670345</v>
       </c>
       <c r="C40" t="n">
-        <v>3178.287479629868</v>
+        <v>913.7427045492611</v>
       </c>
       <c r="D40" t="n">
-        <v>3178.287479629868</v>
+        <v>750.4259316760318</v>
       </c>
       <c r="E40" t="n">
-        <v>3178.287479629868</v>
+        <v>584.2177258288854</v>
       </c>
       <c r="F40" t="n">
-        <v>3178.287479629868</v>
+        <v>412.3559516034458</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>246.098981897678</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2262.979652848451</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2262.979652848451</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>2019.640305074351</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>2019.640305074351</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>2019.640305074351</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004482</v>
+        <v>1744.787901246864</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450287</v>
+        <v>1502.224004692669</v>
       </c>
       <c r="Y40" t="n">
-        <v>3350.260042750952</v>
+        <v>1275.881236382411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.0877085798951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2047.588607372514</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2459.847729487867</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.847729487867</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>2459.847729487867</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.127008645795</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149978</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664164</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3040.564713664164</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2922.603033252739</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2510.883034420487</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2510.883034420487</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299957</v>
+        <v>610.0460590406528</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2830578459057</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M42" t="n">
-        <v>909.2830578459057</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N42" t="n">
-        <v>1806.275648663025</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>343.6019286254902</v>
+        <v>997.7119985741026</v>
       </c>
       <c r="C43" t="n">
-        <v>171.6293655044062</v>
+        <v>825.7394354530186</v>
       </c>
       <c r="D43" t="n">
-        <v>171.6293655044062</v>
+        <v>662.4226625797893</v>
       </c>
       <c r="E43" t="n">
-        <v>171.6293655044062</v>
+        <v>496.2144567326428</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48424976299957</v>
+        <v>324.3526825072032</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299957</v>
+        <v>324.3526825072032</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299957</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U43" t="n">
-        <v>1559.238433421467</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.526966029496</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W43" t="n">
-        <v>1002.674562202009</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X43" t="n">
-        <v>760.1106656478138</v>
+        <v>1187.877967286168</v>
       </c>
       <c r="Y43" t="n">
-        <v>533.7678973375558</v>
+        <v>1187.877967286168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1049.778315921868</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>622.8775859351683</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>622.8775859351683</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>622.8775859351683</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>197.7534041245685</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>72.48424976299957</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.0877085798951</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K44" t="n">
-        <v>435.0877085798951</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L44" t="n">
-        <v>600.1541536380327</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M44" t="n">
-        <v>600.1541536380327</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455152</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605964</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763892</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268075</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664164</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2683.075298790413</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2286.683949090761</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>1874.963950258508</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1469.626680213398</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425907</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>344.1817390425907</v>
+        <v>528.0267489559496</v>
       </c>
       <c r="L45" t="n">
-        <v>344.1817390425907</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>344.1817390425907</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>344.1817390425907</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1082.954853220308</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.3185871095232</v>
+        <v>3436.220184719756</v>
       </c>
       <c r="C46" t="n">
-        <v>244.3460239884391</v>
+        <v>3264.247621598672</v>
       </c>
       <c r="D46" t="n">
-        <v>244.3460239884391</v>
+        <v>3100.930848725443</v>
       </c>
       <c r="E46" t="n">
-        <v>244.3460239884391</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="F46" t="n">
-        <v>72.48424976299957</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299957</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299957</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299957</v>
+        <v>2934.722642878296</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871576</v>
+        <v>2992.213971102454</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929948</v>
+        <v>3218.741572308291</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874156</v>
+        <v>3573.430893602712</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572963</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199448999</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2155.478888179296</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T46" t="n">
-        <v>1912.139540405195</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.9550919055</v>
+        <v>4377.004285688246</v>
       </c>
       <c r="V46" t="n">
-        <v>1350.243624513529</v>
+        <v>4095.292818296274</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.391220686042</v>
+        <v>4095.292818296274</v>
       </c>
       <c r="X46" t="n">
-        <v>832.8273241318468</v>
+        <v>3852.728921742079</v>
       </c>
       <c r="Y46" t="n">
-        <v>606.4845558215889</v>
+        <v>3626.386153431821</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487775</v>
       </c>
       <c r="L2" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884141</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>39.87991497762237</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662961</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>48.93033710269458</v>
       </c>
       <c r="P3" t="n">
-        <v>182.5645565894898</v>
+        <v>505.5475323587968</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8152,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>157.3211482065613</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8216,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8225,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>456.538457816883</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8295,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>178.3948923327715</v>
       </c>
       <c r="N6" t="n">
-        <v>456.5786519614258</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8383,16 +8385,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>154.8562184343671</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>456.5787613602907</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,10 +8531,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>177.6973456537771</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8541,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>99.28895563385584</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8611,7 +8613,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>255.3890173889887</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>681.7212490358229</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>851.5983435449576</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>528.522094442336</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.18340977327078</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P15" t="n">
-        <v>125.0635317985269</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>705.163486220521</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9252,10 +9254,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>426.1863273385558</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.3243076206832</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>43.54168314167958</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9738,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10121,13 +10123,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10431,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>743.9259979858341</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10826,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>443.1202251383856</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>280.9771495655156</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701174</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>453.854618571506</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>535.2713001311357</v>
       </c>
       <c r="L42" t="n">
         <v>867.7664080100944</v>
@@ -11148,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510361</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>98.82464899543872</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>205.0458253196306</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719406</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>444.9016505891003</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>769.4073585886036</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>86.16963846048145</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.40820464351867</v>
+        <v>88.39845292919007</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>418.4845913801</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>112.7602435759713</v>
       </c>
       <c r="E16" t="n">
-        <v>16.53747798263038</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>25.17671941369127</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.33105441802947</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.6659244626143</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>165.764160956837</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>60.83085829126902</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.10306663473517</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>75.43346327041121</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>16.91472822774779</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>35.03588076950791</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>152.3170530165231</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.02950008889754</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.279441954813848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>275.6453725953464</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>71.98949189919263</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>21.29971897369305</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>276.2792089684926</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>71.98949189919266</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2.540411739662943</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>518026.7763748145</v>
+        <v>518715.2219104038</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>518026.7763748144</v>
+        <v>520944.2575196523</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>518026.7763748145</v>
+        <v>520944.2575196523</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>413993.5168481497</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>413993.5168481498</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>520674.1828607823</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>520674.1828607824</v>
+        <v>520674.1828607823</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>520674.1828607824</v>
+        <v>520674.1828607823</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>520674.1828607824</v>
+        <v>520674.1828607823</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>413993.5168481499</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>413993.5168481499</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100471</v>
+        <v>524198.401210047</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.4012100471</v>
+        <v>524198.401210047</v>
       </c>
       <c r="D2" t="n">
-        <v>524198.4012100471</v>
+        <v>524198.401210047</v>
       </c>
       <c r="E2" t="n">
-        <v>402200.556210794</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="F2" t="n">
-        <v>402200.5562107938</v>
+        <v>505827.3628237023</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="H2" t="n">
+        <v>505827.3628237024</v>
+      </c>
+      <c r="I2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="J2" t="n">
         <v>505827.3628237027</v>
-      </c>
-      <c r="I2" t="n">
-        <v>505827.3628237027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>505827.3628237026</v>
       </c>
       <c r="K2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="L2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="M2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="N2" t="n">
+        <v>505827.3628237025</v>
+      </c>
+      <c r="O2" t="n">
         <v>505827.3628237026</v>
       </c>
-      <c r="M2" t="n">
-        <v>505827.3628237028</v>
-      </c>
-      <c r="N2" t="n">
-        <v>505827.3628237029</v>
-      </c>
-      <c r="O2" t="n">
-        <v>402200.556210794</v>
-      </c>
       <c r="P2" t="n">
-        <v>402200.5562107941</v>
+        <v>505827.3628237027</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361219</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184160.7703768716</v>
+        <v>179728.0181786383</v>
       </c>
       <c r="C4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
+        <v>43748.40045389551</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43748.40045389558</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43748.40045389551</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43748.40045389551</v>
+      </c>
+      <c r="O4" t="n">
         <v>43748.40045389555</v>
       </c>
-      <c r="I4" t="n">
-        <v>43748.40045389557</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34761.27815811224</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34761.27815811223</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123731.1959448267</v>
+        <v>119304.4641396562</v>
       </c>
       <c r="C6" t="n">
-        <v>278356.9165629472</v>
+        <v>267969.5774565501</v>
       </c>
       <c r="D6" t="n">
-        <v>278356.9165629472</v>
+        <v>291376.4111301623</v>
       </c>
       <c r="E6" t="n">
-        <v>179587.5802232003</v>
+        <v>168589.5436247368</v>
       </c>
       <c r="F6" t="n">
-        <v>312351.248232802</v>
+        <v>384328.9001813771</v>
       </c>
       <c r="G6" t="n">
-        <v>282168.9800870676</v>
+        <v>384328.9001813772</v>
       </c>
       <c r="H6" t="n">
-        <v>384328.9001813775</v>
+        <v>384328.9001813772</v>
       </c>
       <c r="I6" t="n">
+        <v>384328.9001813772</v>
+      </c>
+      <c r="J6" t="n">
+        <v>257751.6316010886</v>
+      </c>
+      <c r="K6" t="n">
+        <v>365682.2998243577</v>
+      </c>
+      <c r="L6" t="n">
         <v>384328.9001813774</v>
       </c>
-      <c r="J6" t="n">
-        <v>263606.3832386205</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>204265.0287262095</v>
+      </c>
+      <c r="N6" t="n">
+        <v>384328.9001813773</v>
+      </c>
+      <c r="O6" t="n">
         <v>384328.9001813774</v>
       </c>
-      <c r="L6" t="n">
-        <v>384328.9001813773</v>
-      </c>
-      <c r="M6" t="n">
-        <v>273519.5400722442</v>
-      </c>
-      <c r="N6" t="n">
-        <v>384328.9001813776</v>
-      </c>
-      <c r="O6" t="n">
-        <v>312351.2482328021</v>
-      </c>
       <c r="P6" t="n">
-        <v>312351.2482328021</v>
+        <v>384328.9001813774</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162603</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353623</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>318.5130220887418</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>266.2210958770907</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.3987399855503</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>276.7893185823292</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>385.0527817684124</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.38454581829627</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27774,16 +27776,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>27.7762916742</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.7522742325703</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>169.221194470262</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>56.38454581829643</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>45.89744421596069</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>44.04530650973375</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30703,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30891,7 +30893,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="L2" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>2.304553167391073</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>25.75844738047236</v>
       </c>
       <c r="P3" t="n">
-        <v>160.7937153846612</v>
+        <v>483.7766911539681</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34872,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>134.9403475485748</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>419.1474984608589</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="N6" t="n">
-        <v>435.2356237478841</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35103,16 +35105,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>134.1073174587667</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>419.1474984608589</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,10 +35251,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>155.2981118204437</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>77.94592742031416</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35331,7 +35333,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>234.6401164133883</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>644.4416262013768</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>829.083256830728</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>505.3502047201138</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15.76345028768426</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P15" t="n">
-        <v>103.2926905936983</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>666.8514437878981</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35972,10 +35974,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>403.0144376163336</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104519</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>20.4449026293516</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36841,13 +36843,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>706.646375151388</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374945</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>416.4233556720742</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="L42" t="n">
         <v>845.2513212958648</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374945</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>75.6527592732165</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>166.7337828870076</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374945</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>746.2354688663814</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38187,7 +38189,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977436</v>
       </c>
       <c r="P46" t="n">
         <v>293.5345574968697</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2500667.350036321</v>
+        <v>2499970.68883123</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.946211476</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -673,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.640925632306</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.0628014675679</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5932854323695506</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>152.6093644905698</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -904,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>70.36806076804496</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24289001803345</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>133.907313470297</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>31.26920727132408</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834604</v>
       </c>
       <c r="C8" t="n">
-        <v>253.4105282165708</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.3668648089843</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>71.04375511693161</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.86585609575492</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1587,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1770,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>48.92336156852569</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1821,19 +1821,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>108.875300431531</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>246.9271603755208</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396307</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>42.76777254344215</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>106.3397188323751</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>107.6028387147875</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>23.33741930671558</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,16 +3009,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886567</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>153.2284282554374</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,7 +3246,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095548</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>146.7373013332706</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>12.27734699218708</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.9059542963637</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3559,10 +3559,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069309</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.53872709080104</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>168.1487656894605</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.283897344659</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.0585868332341</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686248</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>274.8421922750358</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1775.192137383435</v>
+        <v>932.2144580460985</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.291407396735</v>
+        <v>909.3541320998027</v>
       </c>
       <c r="D2" t="n">
-        <v>1329.03919062214</v>
+        <v>890.101915325207</v>
       </c>
       <c r="E2" t="n">
-        <v>903.0622507699974</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>477.9380689593976</v>
+        <v>39.00079366246472</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884623</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884623</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516413</v>
+        <v>498.2899918885868</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516413</v>
+        <v>977.2289161310148</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516413</v>
+        <v>977.2289161310148</v>
       </c>
       <c r="N2" t="n">
-        <v>1359.18344259407</v>
+        <v>977.2289161310148</v>
       </c>
       <c r="O2" t="n">
-        <v>1359.18344259407</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229787</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973397</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1935.106764615872</v>
+        <v>1676.751855212283</v>
       </c>
       <c r="V2" t="n">
-        <v>1935.106764615872</v>
+        <v>1319.262440338532</v>
       </c>
       <c r="W2" t="n">
-        <v>1935.106764615872</v>
+        <v>956.9988790937788</v>
       </c>
       <c r="X2" t="n">
-        <v>1927.427169824024</v>
+        <v>949.3192843019301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.000097634561</v>
+        <v>948.0224182972245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668178</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843225</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996076</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725448</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554489</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730529</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353625</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972744</v>
+        <v>46.14877825422926</v>
       </c>
       <c r="J3" t="n">
-        <v>405.5632662768654</v>
+        <v>317.8462675338203</v>
       </c>
       <c r="K3" t="n">
-        <v>405.5632662768654</v>
+        <v>796.7851917762482</v>
       </c>
       <c r="L3" t="n">
-        <v>405.5632662768654</v>
+        <v>889.5119173879714</v>
       </c>
       <c r="M3" t="n">
-        <v>884.5021905192939</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="N3" t="n">
-        <v>884.5021905192939</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="O3" t="n">
-        <v>910.0030534259615</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.94197766839</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531169</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615872</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177127</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474805</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394442</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533708</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366925</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335881</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868805</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.523941749655</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>448.523941749655</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>448.523941749655</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>448.523941749655</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
         <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231745</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647548</v>
+        <v>96.19346351647543</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167335</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
         <v>1068.596180986984</v>
@@ -4503,37 +4503,37 @@
         <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303046</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.933103822181</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1474.593756048081</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1473.994477833566</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.283010441595</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W4" t="n">
-        <v>917.4306066141079</v>
+        <v>1780.955891393073</v>
       </c>
       <c r="X4" t="n">
-        <v>674.866710059913</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>448.523941749655</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>965.1452933471885</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8122684917846</v>
+        <v>541.8526725321888</v>
       </c>
       <c r="E5" t="n">
-        <v>115.8757326800462</v>
+        <v>115.8757326800463</v>
       </c>
       <c r="F5" t="n">
-        <v>94.79195490985052</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4609,10 +4609,10 @@
         <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
+        <v>51.94486801115937</v>
+      </c>
+      <c r="L6" t="n">
+        <v>51.94486801115937</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51.94486801115937</v>
+      </c>
+      <c r="N6" t="n">
         <v>602.6104029955975</v>
       </c>
-      <c r="L6" t="n">
-        <v>602.6104029955975</v>
-      </c>
-      <c r="M6" t="n">
-        <v>756.3555336978366</v>
-      </c>
-      <c r="N6" t="n">
-        <v>756.3555336978366</v>
-      </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>927.6499241754307</v>
+        <v>479.5561293032848</v>
       </c>
       <c r="C7" t="n">
-        <v>927.6499241754307</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4725,22 +4725,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
         <v>2097.911122221615</v>
@@ -4767,10 +4767,10 @@
         <v>927.6499241754307</v>
       </c>
       <c r="X7" t="n">
-        <v>927.6499241754307</v>
+        <v>896.0648663256084</v>
       </c>
       <c r="Y7" t="n">
-        <v>927.6499241754307</v>
+        <v>669.7220980153504</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1171.120452378522</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567329</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8980050821372</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4810,22 +4810,22 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1592.265682674757</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1186.928412629647</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>577.4153955460176</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>577.4153955460176</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>577.4153955460176</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>577.4153955460176</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1128.080930530456</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1678.746465514894</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>783.8450102269608</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>783.8450102269608</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2153.149883657395</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1871.438416265424</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1596.586012437937</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y10" t="n">
-        <v>927.6499241754298</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,46 +5041,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2036.213862444163</v>
+        <v>2856.963518260711</v>
       </c>
       <c r="N11" t="n">
-        <v>3012.464920930865</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="O11" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399955</v>
@@ -5111,7 +5111,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
@@ -5120,25 +5120,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1019.275630082919</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>847.303066961835</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5226,25 +5226,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1589.056897064296</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1589.056897064296</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1346.493000510101</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>1120.150232199843</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,22 +5281,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5308,22 +5308,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5369,13 +5369,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>1191.617659878699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1071.584599994741</v>
+        <v>875.4793615910734</v>
       </c>
       <c r="C16" t="n">
-        <v>899.612036873657</v>
+        <v>703.5067984699893</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5445,43 +5445,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W16" t="n">
-        <v>1540.491264859194</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X16" t="n">
-        <v>1297.927368304999</v>
+        <v>875.4793615910734</v>
       </c>
       <c r="Y16" t="n">
-        <v>1071.584599994741</v>
+        <v>875.4793615910734</v>
       </c>
     </row>
     <row r="17">
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1429.986740661465</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>712.1138248592226</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>540.1412617381386</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>540.1412617381386</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>373.9330558909921</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1181.020489723675</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>938.4565931694806</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.1138248592226</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5782,7 +5782,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5831,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>1194.79262694784</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.79262694784</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3702.24572268525</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3530.273159564166</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3366.956386690937</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3200.748180843791</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5024.897286732699</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4781.557938958599</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4501.373490458904</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4219.662023066932</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3944.809619239445</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3702.24572268525</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3702.24572268525</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6074,13 +6074,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>683.9862940886057</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1152.892958953058</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>910.3290623988637</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>683.9862940886057</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4714.375569412722</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6311,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.582799500206</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2174.026004743414</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1930.686656969314</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1650.502208469618</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.502208469618</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1375.649804642131</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>1375.649804642131</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>357.5299206506891</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N30" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O30" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3941.708347957676</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3769.735784836592</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.419011963363</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3440.210806116216</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3268.349031890777</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3102.092062185009</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2958.295793693163</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4374.43821322394</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4131.874316669741</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>4131.874316669741</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3857.021912842258</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3685.049349721174</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3521.732576847945</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3355.524371000798</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3857.021912842258</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3857.021912842258</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7004,31 +7004,31 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M36" t="n">
         <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.8870954416583</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="C37" t="n">
-        <v>759.8870954416583</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="D37" t="n">
-        <v>596.570322568429</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="E37" t="n">
-        <v>430.3621167212825</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F37" t="n">
-        <v>258.5003424958429</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
         <v>159.7940416299866</v>
@@ -7101,7 +7101,7 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.20273225116</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751464</v>
       </c>
       <c r="V37" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359493</v>
       </c>
       <c r="W37" t="n">
-        <v>1228.793760306111</v>
+        <v>985.4544125320062</v>
       </c>
       <c r="X37" t="n">
-        <v>986.2298637519162</v>
+        <v>742.8905159778113</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.8870954416583</v>
+        <v>516.5477476675534</v>
       </c>
     </row>
     <row r="38">
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7265,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670345</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492611</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760318</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288854</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.3559516034458</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.098981897678</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2262.979652848451</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2262.979652848451</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2019.640305074351</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2019.640305074351</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>2019.640305074351</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1744.787901246864</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692669</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382411</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,37 +7399,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
         <v>4997.579335409525</v>
@@ -7447,13 +7447,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>610.0460590406528</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L42" t="n">
-        <v>1446.844867123559</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.844867123559</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>997.7119985741026</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>825.7394354530186</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>662.4226625797893</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>496.2144567326428</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>324.3526825072032</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>324.3526825072032</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.441863840363</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.877967286168</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1187.877967286168</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
         <v>1264.531207409474</v>
@@ -7648,16 +7648,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>338.650469582768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1054.158777558267</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>1983.783825177544</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N44" t="n">
         <v>2988.069926596602</v>
@@ -7675,25 +7675,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>528.0267489559496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1364.825557038856</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3436.220184719756</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3264.247621598672</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3100.930848725443</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>2934.722642878296</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878296</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102454</v>
+        <v>159.7940416299849</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308291</v>
+        <v>386.3216428358221</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602712</v>
+        <v>741.0109641302429</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572963</v>
+        <v>1132.196759100494</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199448999</v>
+        <v>1509.688269976529</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656292</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578193</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4377.004285688246</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4095.292818296274</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4095.292818296274</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>3852.728921742079</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3626.386153431821</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487775</v>
+        <v>499.9947589728592</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865906</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884141</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>39.87991497762237</v>
+        <v>521.3520529641989</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>116.1784459179903</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662961</v>
+        <v>506.8734716662956</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675093</v>
       </c>
       <c r="O3" t="n">
-        <v>48.93033710269458</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587968</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>222.9232893478685</v>
       </c>
       <c r="P4" t="n">
-        <v>157.3211482065613</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8297,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>178.3948923327715</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>90.6511520067363</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8458,25 +8458,25 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>177.6973456537771</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,7 +8543,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733348</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8552,10 +8552,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>791.899940114797</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,13 +8768,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>851.5983435449576</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9017,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>749.810964578424</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>426.1863273385558</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9266,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>423.228367941047</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>440.9328573103608</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9959,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P27" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>280.9020403556215</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934782</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10828,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>443.1202251383856</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O39" t="n">
-        <v>280.9771495655156</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>535.2713001311357</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>509.0341153029024</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.1550667350203</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,7 +11308,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>998.750394705596</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>444.9016505891003</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.39845292919007</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>112.7602435759713</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>131.2629571571219</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23910,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>25.17671941369127</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>125.6659244626143</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>60.83085829126902</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>75.43346327041121</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>16.91472822774779</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>41.52700769167438</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>152.3170530165231</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.02950008889754</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>71.98949189919244</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>21.29971897369305</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919401</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.540411739662943</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>520674.1828607823</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>520674.1828607823</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520674.1828607824</v>
+        <v>520674.1828607823</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>520674.1828607823</v>
+        <v>520674.1828607824</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>520674.1828607824</v>
+        <v>520674.1828607823</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>524198.401210047</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100469</v>
       </c>
       <c r="D2" t="n">
-        <v>524198.401210047</v>
+        <v>524198.4012100469</v>
       </c>
       <c r="E2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="F2" t="n">
-        <v>505827.3628237023</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="G2" t="n">
         <v>505827.3628237025</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237024</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="I2" t="n">
+        <v>505827.3628237027</v>
+      </c>
+      <c r="J2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="J2" t="n">
-        <v>505827.3628237027</v>
-      </c>
       <c r="K2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="L2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="M2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237028</v>
       </c>
       <c r="N2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237028</v>
       </c>
       <c r="O2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="P2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237026</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361219</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701974</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179728.0181786383</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26429,37 +26429,37 @@
         <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="G4" t="n">
         <v>43748.40045389557</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="J4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43748.40045389556</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43748.40045389552</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43748.40045389552</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="P4" t="n">
         <v>43748.40045389551</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43748.40045389556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43748.40045389558</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43748.40045389551</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43748.40045389557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43748.40045389557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43748.40045389551</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43748.40045389555</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,7 +26478,7 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
         <v>77750.06218842969</v>
@@ -26502,7 +26502,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
@@ -26524,46 +26524,46 @@
         <v>119304.4641396562</v>
       </c>
       <c r="C6" t="n">
-        <v>267969.5774565501</v>
+        <v>267969.5774565499</v>
       </c>
       <c r="D6" t="n">
-        <v>291376.4111301623</v>
+        <v>291376.4111301622</v>
       </c>
       <c r="E6" t="n">
-        <v>168589.5436247368</v>
+        <v>168538.5129625526</v>
       </c>
       <c r="F6" t="n">
-        <v>384328.9001813771</v>
+        <v>384277.8695191931</v>
       </c>
       <c r="G6" t="n">
-        <v>384328.9001813772</v>
+        <v>384277.869519193</v>
       </c>
       <c r="H6" t="n">
-        <v>384328.9001813772</v>
+        <v>384277.869519193</v>
       </c>
       <c r="I6" t="n">
-        <v>384328.9001813772</v>
+        <v>384277.8695191931</v>
       </c>
       <c r="J6" t="n">
-        <v>257751.6316010886</v>
+        <v>257700.6009389042</v>
       </c>
       <c r="K6" t="n">
-        <v>365682.2998243577</v>
+        <v>365631.2691621731</v>
       </c>
       <c r="L6" t="n">
-        <v>384328.9001813774</v>
+        <v>384277.869519193</v>
       </c>
       <c r="M6" t="n">
-        <v>204265.0287262095</v>
+        <v>204213.9980640257</v>
       </c>
       <c r="N6" t="n">
-        <v>384328.9001813773</v>
+        <v>384277.8695191933</v>
       </c>
       <c r="O6" t="n">
-        <v>384328.9001813774</v>
+        <v>384277.8695191931</v>
       </c>
       <c r="P6" t="n">
-        <v>384328.9001813774</v>
+        <v>384277.8695191931</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,7 +26798,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162603</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162603</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162603</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>33.78651057035057</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.2210958770907</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>276.7893185823292</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>119.4945152986423</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>350.5048792244488</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>385.0527817684124</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>27.7762916742</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>208.8690503173288</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>245.3945739651544</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>169.221194470262</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27906,7 +27906,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.89744421596069</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>206.3388488977671</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.429616271214126e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30705,7 +30705,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.779647469158316e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.155449954899178e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.635016005089166e-12</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30893,7 +30893,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539681</v>
+        <v>464.2301581780499</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539681</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P2" t="n">
-        <v>2.304553167391073</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.66335920376078</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539681</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O3" t="n">
-        <v>25.75844738047236</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539681</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>200.424101849444</v>
       </c>
       <c r="P4" t="n">
-        <v>134.9403475485748</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>155.2981118204435</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35178,25 +35178,25 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>155.2981118204437</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35272,10 +35272,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153652</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>829.083256830728</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>726.6390748562018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366198</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>403.0144376163336</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>385.7971050416152</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P27" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8052598432935</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>19.53098502455135</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>404.8081827057627</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O39" t="n">
-        <v>257.8052598432934</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.7351072494338</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,7 +38028,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>961.47077187115</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871126909</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
@@ -38189,7 +38189,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977436</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
         <v>293.5345574968697</v>
